--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="930">
   <si>
     <t>anchor score</t>
   </si>
@@ -193,634 +193,634 @@
     <t>deadly</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3169,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3230,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03668026662925643</v>
+        <v>0.03737250350500881</v>
       </c>
       <c r="C3">
         <v>196</v>
@@ -3251,28 +3251,28 @@
         <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="K3">
-        <v>0.004799085449571728</v>
+        <v>0.008194196233890443</v>
       </c>
       <c r="L3">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M3">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3280,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0197807100066052</v>
+        <v>0.02015401527817088</v>
       </c>
       <c r="C4">
         <v>57</v>
@@ -3301,16 +3301,16 @@
         <v>459</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4">
-        <v>0.003963357074787655</v>
+        <v>0.007320702150234525</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3330,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01410923435487014</v>
+        <v>0.01437550647354888</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -3351,28 +3351,28 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="K5">
-        <v>0.003465855220233203</v>
+        <v>0.004799085449571728</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01256516992743597</v>
+        <v>0.01280230217245974</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3401,28 +3401,28 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="K6">
-        <v>0.003404505824803725</v>
+        <v>0.003963357074787655</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3430,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01080261526344592</v>
+        <v>0.01100648424606554</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3451,16 +3451,16 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K7">
-        <v>0.003375817618273012</v>
+        <v>0.003465855220233203</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3480,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009446613009248194</v>
+        <v>0.009624891262840494</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3501,28 +3501,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="K8">
-        <v>0.003329885986629999</v>
+        <v>0.003404505824803725</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3530,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009076012205292191</v>
+        <v>0.009247296410960172</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -3551,28 +3551,28 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="K9">
-        <v>0.003315622268241428</v>
+        <v>0.003375817618273012</v>
       </c>
       <c r="L9">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3580,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007860057134840663</v>
+        <v>0.008008393608216174</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3601,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K10">
-        <v>0.00318812310933752</v>
+        <v>0.003329885986629999</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3630,7 +3630,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007860057134840663</v>
+        <v>0.008008393608216174</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3651,28 +3651,28 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K11">
-        <v>0.002829858937310921</v>
+        <v>0.003315622268241428</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3680,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007860057134840663</v>
+        <v>0.008008393608216174</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -3701,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K12">
-        <v>0.002774904988858332</v>
+        <v>0.00318812310933752</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3730,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007860057134840663</v>
+        <v>0.008008393608216174</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3751,16 +3751,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K13">
-        <v>0.002718840522962541</v>
+        <v>0.002829858937310921</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3780,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007860057134840663</v>
+        <v>0.008008393608216174</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3801,16 +3801,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K14">
-        <v>0.002718840522962541</v>
+        <v>0.002774904988858332</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3830,7 +3830,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007410532934079386</v>
+        <v>0.007550385902374213</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3851,16 +3851,16 @@
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K15">
-        <v>0.002661595363952904</v>
+        <v>0.002718840522962541</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3880,7 +3880,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007410532934079386</v>
+        <v>0.007550385902374213</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -3901,16 +3901,16 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16">
-        <v>0.002603091618350756</v>
+        <v>0.002718840522962541</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3930,7 +3930,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007410532934079386</v>
+        <v>0.007550385902374213</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -3951,16 +3951,16 @@
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K17">
-        <v>0.00254324243155078</v>
+        <v>0.002661595363952904</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3980,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007410532934079386</v>
+        <v>0.007550385902374213</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -4001,16 +4001,16 @@
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K18">
-        <v>0.002481950474476211</v>
+        <v>0.002603091618350756</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4030,7 +4030,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4051,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K19">
-        <v>0.002481950474476211</v>
+        <v>0.00254324243155078</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4080,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="K20">
-        <v>0.002446298600644935</v>
+        <v>0.002481950474476211</v>
       </c>
       <c r="L20">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4130,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4151,16 +4151,16 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K21">
-        <v>0.002419106084872066</v>
+        <v>0.002481950474476211</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4201,28 +4201,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="K22">
-        <v>0.002419106084872066</v>
+        <v>0.002446298600644935</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4230,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K23">
         <v>0.002419106084872066</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4280,7 +4280,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4301,28 +4301,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="K24">
-        <v>0.002374366683881545</v>
+        <v>0.002419106084872066</v>
       </c>
       <c r="L24">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>306</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4330,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00641770977649398</v>
+        <v>0.00653882599983196</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4351,28 +4351,28 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="K25">
-        <v>0.002374366683881545</v>
+        <v>0.002419106084872066</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4380,7 +4380,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005858540686845318</v>
+        <v>0.005969104166182061</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4401,28 +4401,28 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="K26">
-        <v>0.002354584961724129</v>
+        <v>0.002374366683881545</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4430,7 +4430,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005858540686845318</v>
+        <v>0.005969104166182061</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4451,28 +4451,28 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="K27">
-        <v>0.002354584961724129</v>
+        <v>0.002374366683881545</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4480,7 +4480,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005858540686845318</v>
+        <v>0.005969104166182061</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4501,28 +4501,28 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="K28">
-        <v>0.002340222766239491</v>
+        <v>0.002354584961724129</v>
       </c>
       <c r="L28">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4530,7 +4530,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005858540686845318</v>
+        <v>0.005969104166182061</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4551,16 +4551,16 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K29">
-        <v>0.00228824527402326</v>
+        <v>0.002354584961724129</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4580,7 +4580,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4601,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K30">
         <v>0.00228824527402326</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4630,7 +4630,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4651,28 +4651,28 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="K31">
-        <v>0.002287279792139091</v>
+        <v>0.00228824527402326</v>
       </c>
       <c r="L31">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>348</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4680,7 +4680,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4701,28 +4701,28 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K32">
-        <v>0.002211236481187476</v>
+        <v>0.002287279792139091</v>
       </c>
       <c r="L32">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4730,7 +4730,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4751,28 +4751,28 @@
         <v>47</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>0.00214943216183124</v>
+        <v>0.002211236481187476</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4780,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4801,7 +4801,7 @@
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K34">
         <v>0.00214943216183124</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4830,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4851,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K35">
         <v>0.00214943216183124</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4880,7 +4880,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4901,28 +4901,28 @@
         <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="K36">
-        <v>0.002138597720618968</v>
+        <v>0.00214943216183124</v>
       </c>
       <c r="L36">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4930,7 +4930,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4951,28 +4951,28 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.002076548749831528</v>
+        <v>0.002138597720618968</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4980,7 +4980,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005240038089893776</v>
+        <v>0.005338929072144115</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K38">
         <v>0.002076548749831528</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5030,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5051,16 +5051,16 @@
         <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K39">
-        <v>0.002001012444373909</v>
+        <v>0.002076548749831528</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5080,7 +5080,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5101,7 +5101,7 @@
         <v>27</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K40">
         <v>0.002001012444373909</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>554</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5130,7 +5130,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5151,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K41">
         <v>0.002001012444373909</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5180,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5201,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K42">
         <v>0.002001012444373909</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5230,7 +5230,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5251,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K43">
         <v>0.002001012444373909</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5280,7 +5280,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5301,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K44">
         <v>0.002001012444373909</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5330,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004538006102646095</v>
+        <v>0.004623648205480086</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5351,28 +5351,28 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="K45">
-        <v>0.001980065513883686</v>
+        <v>0.002001012444373909</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5380,7 +5380,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5401,28 +5401,28 @@
         <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.001922510570751592</v>
+        <v>0.001980065513883686</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K47">
         <v>0.001922510570751592</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>147</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5480,7 +5480,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5501,7 +5501,7 @@
         <v>78</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K48">
         <v>0.001922510570751592</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5530,7 +5530,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5551,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K49">
         <v>0.001922510570751592</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5580,7 +5580,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K50">
         <v>0.001922510570751592</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K51">
         <v>0.001922510570751592</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K52">
         <v>0.001922510570751592</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5730,7 +5730,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003705266467039693</v>
+        <v>0.003775192951187107</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5751,28 +5751,28 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="K53">
-        <v>0.001920760659621412</v>
+        <v>0.001922510570751592</v>
       </c>
       <c r="L53">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M53">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5780,25 +5780,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002697906932795129</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>308</v>
@@ -5830,7 +5830,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>309</v>
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>310</v>
@@ -5930,7 +5930,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>311</v>
@@ -5980,7 +5980,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>312</v>
@@ -6030,7 +6030,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>313</v>
@@ -6080,7 +6080,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>314</v>
@@ -6130,7 +6130,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K61">
         <v>0.001827217088896415</v>
@@ -6180,7 +6180,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6198,10 +6198,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K62">
         <v>0.001773191425120879</v>
@@ -6230,7 +6230,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>315</v>
@@ -6280,7 +6280,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>316</v>
@@ -6330,7 +6330,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>317</v>
@@ -6380,7 +6380,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>318</v>
@@ -6430,7 +6430,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>319</v>
@@ -6480,7 +6480,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>320</v>
@@ -6530,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>321</v>
@@ -6580,7 +6580,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>322</v>
@@ -6630,7 +6630,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K71">
         <v>0.001742817761119043</v>
@@ -6680,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K72">
         <v>0.00172502847530654</v>
@@ -6730,7 +6730,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6748,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K73">
         <v>0.001689207009675075</v>
@@ -6780,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6830,7 +6830,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>324</v>
@@ -6880,7 +6880,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>325</v>
@@ -6930,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>326</v>
@@ -6980,7 +6980,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>327</v>
@@ -7030,7 +7030,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>328</v>
@@ -7080,7 +7080,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>329</v>
@@ -7130,7 +7130,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>330</v>
@@ -7180,7 +7180,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>331</v>
@@ -7230,7 +7230,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>332</v>
@@ -7280,7 +7280,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002620019044946888</v>
+        <v>0.002669464536072058</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>333</v>
@@ -7330,25 +7330,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002620019044946888</v>
+        <v>0.002506946006771585</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>334</v>
@@ -7380,28 +7380,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002460510785455066</v>
+        <v>0.00217634761479669</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="E86">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F86">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K86">
         <v>0.001650363728391568</v>
@@ -7430,28 +7430,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002381308081166851</v>
+        <v>0.002080082307037218</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K87">
         <v>0.001619084013747604</v>
@@ -7480,28 +7480,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002136035943591252</v>
+        <v>0.001894703295179472</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="E88">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F88">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K88">
         <v>0.001619084013747604</v>
@@ -7530,13 +7530,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002041553722048571</v>
+        <v>0.001894703295179472</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E89">
         <v>0.97</v>
@@ -7548,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>335</v>
@@ -7580,25 +7580,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001859608416150107</v>
+        <v>0.001844709788323721</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>306</v>
+        <v>3005</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>336</v>
@@ -7630,13 +7630,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001859608416150107</v>
+        <v>0.001809047215993023</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E91">
         <v>0.97</v>
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>337</v>
@@ -7680,25 +7680,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001810540920285006</v>
+        <v>0.001637787587828331</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E92">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F92">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>3005</v>
+        <v>135</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>338</v>
@@ -7730,25 +7730,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001775538912415776</v>
+        <v>0.001597385043647925</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E93">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F93">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>2066</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>339</v>
@@ -7780,25 +7780,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00160745146215796</v>
+        <v>0.00156150179166949</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E94">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F94">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>340</v>
@@ -7830,25 +7830,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001567797279161123</v>
+        <v>0.001540497160129263</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E95">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F95">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>2066</v>
+        <v>14</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>341</v>
@@ -7880,25 +7880,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001532578679210562</v>
+        <v>0.001527558464379265</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E96">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F96">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>342</v>
@@ -7930,25 +7930,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001511963108588125</v>
+        <v>0.001507289701982413</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E97">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F97">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>343</v>
@@ -7980,25 +7980,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001499264071450269</v>
+        <v>0.00149785641871011</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E98">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F98">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>344</v>
@@ -8030,25 +8030,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001479370739742857</v>
+        <v>0.00134408871242307</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F99">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>345</v>
@@ -8080,25 +8080,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001470112185641148</v>
+        <v>0.00127271624825582</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E100">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F100">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>346</v>
@@ -8130,25 +8130,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001319192660947764</v>
+        <v>0.001218438531880981</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E101">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F101">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>347</v>
@@ -8180,13 +8180,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001249142202184922</v>
+        <v>0.001209977795941316</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E102">
         <v>0.98</v>
@@ -8198,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>348</v>
@@ -8230,13 +8230,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001195869851607995</v>
+        <v>0.001183367003724681</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>0.98</v>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>39</v>
+        <v>848</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>349</v>
@@ -8280,13 +8280,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00118756583070918</v>
+        <v>0.001174056747175171</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E104">
         <v>0.98</v>
@@ -8298,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>856</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>350</v>
@@ -8330,13 +8330,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001161447940223436</v>
+        <v>0.001174056747175171</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E105">
         <v>0.98</v>
@@ -8348,10 +8348,10 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>848</v>
+        <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K105">
         <v>0.00152378103433052</v>
@@ -8380,25 +8380,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001152310134066643</v>
+        <v>0.001154015456051238</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E106">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F106">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>856</v>
+        <v>3161</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>351</v>
@@ -8430,25 +8430,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001152310134066643</v>
+        <v>0.001150907440694268</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E107">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F107">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>352</v>
@@ -8480,25 +8480,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001132640060267014</v>
+        <v>0.001144660450691103</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E108">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F108">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>3161</v>
+        <v>23</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>353</v>
@@ -8530,25 +8530,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001129589613513662</v>
+        <v>0.00113329830510906</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E109">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F109">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>354</v>
@@ -8580,25 +8580,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001123458334165045</v>
+        <v>0.001030617039814359</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E110">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F110">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>355</v>
@@ -8630,25 +8630,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001112306645347251</v>
+        <v>0.001013049924529534</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E111">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F111">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>356</v>
@@ -8680,13 +8680,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001011527306646159</v>
+        <v>0.001010873782431878</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112">
         <v>0.9399999999999999</v>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>357</v>
@@ -8730,25 +8730,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.0009942855804538546</v>
+        <v>0.001010873782431878</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E113">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F113">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>358</v>
@@ -8780,25 +8780,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.0009921497462206874</v>
+        <v>0.0009673454331659906</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F114">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>359</v>
@@ -8830,25 +8830,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.0009921497462206874</v>
+        <v>0.0009342527338300986</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F115">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>360</v>
@@ -8880,13 +8880,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.0009494276562544598</v>
+        <v>0.0009166740862575825</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E116">
         <v>0.96</v>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>19</v>
+        <v>625</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>361</v>
@@ -8930,13 +8930,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.000916947920585704</v>
+        <v>0.0009166740862575825</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>0.96</v>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>362</v>
@@ -8980,25 +8980,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.000899694875713952</v>
+        <v>0.0008530684770343409</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F118">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>625</v>
+        <v>18</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>363</v>
@@ -9030,25 +9030,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.000899694875713952</v>
+        <v>0.0008530684770343409</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>25</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F119">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>364</v>
@@ -9080,13 +9080,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.000837267409351895</v>
+        <v>0.0008271517996874554</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120">
         <v>0.92</v>
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>365</v>
@@ -9130,25 +9130,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.000837267409351895</v>
+        <v>0.0008160121545679165</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E121">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F121">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>366</v>
@@ -9180,25 +9180,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.000811830776906312</v>
+        <v>0.0008160121545679165</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E122">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F122">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>367</v>
@@ -9230,25 +9230,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0008008974672583454</v>
+        <v>0.0008002123400104107</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E123">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F123">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>368</v>
@@ -9280,25 +9280,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0008008974672583454</v>
+        <v>0.0007682411017465873</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E124">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>369</v>
@@ -9330,25 +9330,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0007853903067443474</v>
+        <v>0.0007682411017465873</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F125">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>370</v>
@@ -9380,13 +9380,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0007540112597445298</v>
+        <v>0.0007423030891761806</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>0.9399999999999999</v>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>371</v>
@@ -9430,13 +9430,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0007540112597445298</v>
+        <v>0.0007147957064812758</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>0.9399999999999999</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>372</v>
@@ -9480,13 +9480,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0007285536872597746</v>
+        <v>0.0007147957064812758</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>0.9399999999999999</v>
@@ -9498,10 +9498,10 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K128">
         <v>0.001418714495099091</v>
@@ -9530,7 +9530,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0007015558135051605</v>
+        <v>0.0007147957064812758</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9548,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>373</v>
@@ -9580,7 +9580,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0007015558135051605</v>
+        <v>0.0007147957064812758</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>374</v>
@@ -9630,7 +9630,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0007015558135051605</v>
+        <v>0.0007147957064812758</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>375</v>
@@ -9680,25 +9680,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0007015558135051605</v>
+        <v>0.0006855363821072981</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>376</v>
@@ -9730,25 +9730,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0007015558135051605</v>
+        <v>0.0006855363821072981</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>377</v>
@@ -9780,25 +9780,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0006728384486305927</v>
+        <v>0.0006805905807504946</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E134">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F134">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>312</v>
+        <v>1142</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>378</v>
@@ -9830,13 +9830,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0006728384486305927</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E135">
         <v>0.93</v>
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>379</v>
@@ -9880,25 +9880,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0006679842564987068</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E136">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F136">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1142</v>
+        <v>17</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>380</v>
@@ -9930,7 +9930,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0006421905411126449</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9948,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>381</v>
@@ -9980,7 +9980,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0006421905411126449</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -9998,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>382</v>
@@ -10030,7 +10030,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0006421905411126449</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>383</v>
@@ -10080,7 +10080,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0006421905411126449</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>384</v>
@@ -10130,7 +10130,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0006421905411126449</v>
+        <v>0.0006543100815268623</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>385</v>
@@ -10180,25 +10180,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0006421905411126449</v>
+        <v>0.0006472281102455568</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F142">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>386</v>
@@ -10230,25 +10230,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0006421905411126449</v>
+        <v>0.0006208614579679506</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>387</v>
@@ -10280,25 +10280,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0006352397465311632</v>
+        <v>0.0006208614579679506</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F144">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>388</v>
@@ -10330,13 +10330,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0006093614738718571</v>
+        <v>0.0005848846466296564</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145">
         <v>0.92</v>
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>389</v>
@@ -10380,13 +10380,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0006093614738718571</v>
+        <v>0.0005848846466296564</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>0.92</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>390</v>
@@ -10430,7 +10430,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0005740510475263965</v>
+        <v>0.0005848846466296564</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>391</v>
@@ -10480,7 +10480,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0005740510475263965</v>
+        <v>0.0005848846466296564</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>392</v>
@@ -10530,25 +10530,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0005740510475263965</v>
+        <v>0.0005755054025070079</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F149">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>393</v>
@@ -10580,25 +10580,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0005740510475263965</v>
+        <v>0.0005727936692582196</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F150">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>394</v>
@@ -10630,25 +10630,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0005648455316274273</v>
+        <v>0.0005460099316476275</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F151">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>395</v>
@@ -10680,25 +10680,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0005621840267972881</v>
+        <v>0.0005460099316476275</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F152">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>396</v>
@@ -10730,7 +10730,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0005358963943203018</v>
+        <v>0.0005460099316476275</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10748,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>11</v>
+        <v>475</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>397</v>
@@ -10780,25 +10780,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0005358963943203018</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F154">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>398</v>
@@ -10830,25 +10830,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0005358963943203018</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>475</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>399</v>
@@ -10880,7 +10880,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0004944549081151683</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>400</v>
@@ -10930,7 +10930,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0004944549081151683</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -10948,10 +10948,10 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K157">
         <v>0.001255309528147062</v>
@@ -10980,7 +10980,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0004944549081151683</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>401</v>
@@ -11030,7 +11030,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0004944549081151683</v>
+        <v>0.0005037863539373496</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>402</v>
@@ -11080,25 +11080,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0004944549081151683</v>
+        <v>0.0004991899281503099</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F160">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>403</v>
@@ -11130,25 +11130,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0004944549081151683</v>
+        <v>0.0004961004340530293</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F161">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>404</v>
@@ -11180,25 +11180,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0004899436202003083</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>405</v>
@@ -11230,25 +11230,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0004869113516442942</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E163">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F163">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>406</v>
@@ -11280,7 +11280,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0004491823324514097</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>536</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>407</v>
@@ -11330,7 +11330,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0004491823324514097</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11348,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>408</v>
@@ -11380,7 +11380,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0004491823324514097</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>536</v>
+        <v>176</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>409</v>
@@ -11430,7 +11430,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0004491823324514097</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>410</v>
@@ -11480,7 +11480,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0004491823324514097</v>
+        <v>0.0004576593857291881</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>411</v>
@@ -11530,25 +11530,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0004491823324514097</v>
+        <v>0.000453078813962515</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>412</v>
@@ -11580,25 +11580,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0004491823324514097</v>
+        <v>0.000453078813962515</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F170">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>413</v>
@@ -11630,25 +11630,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0004446866048988388</v>
+        <v>0.0004197908936602189</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E171">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F171">
-        <v>0.15</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>414</v>
@@ -11680,25 +11680,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0004446866048988388</v>
+        <v>0.0004075868695682853</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F172">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>415</v>
@@ -11730,25 +11730,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0004120152642684736</v>
+        <v>0.0004075868695682853</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>0.1899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>111</v>
+        <v>855</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>416</v>
@@ -11780,25 +11780,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0004000372907409042</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F174">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>417</v>
@@ -11830,25 +11830,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004000372907409042</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>855</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>418</v>
@@ -11880,7 +11880,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>419</v>
@@ -11930,7 +11930,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -11948,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>420</v>
@@ -11980,7 +11980,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>421</v>
@@ -12030,7 +12030,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>422</v>
@@ -12080,7 +12080,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>423</v>
@@ -12130,7 +12130,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>424</v>
@@ -12180,7 +12180,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>425</v>
@@ -12230,7 +12230,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>426</v>
@@ -12280,7 +12280,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0003994061057366743</v>
+        <v>0.0004069437727221987</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>427</v>
@@ -12330,25 +12330,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0003994061057366743</v>
+        <v>0.0003600088490664477</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>428</v>
@@ -12380,25 +12380,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0003994061057366743</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F186">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>429</v>
@@ -12430,25 +12430,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0003533405400812719</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F187">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>430</v>
@@ -12480,7 +12480,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.000344298318584388</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>431</v>
@@ -12530,7 +12530,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.000344298318584388</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>432</v>
@@ -12580,7 +12580,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000344298318584388</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>433</v>
@@ -12630,7 +12630,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000344298318584388</v>
+        <v>0.0003507959810684866</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12648,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>434</v>
@@ -12680,25 +12680,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.000344298318584388</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>435</v>
@@ -12730,25 +12730,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.000344298318584388</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>436</v>
@@ -12780,7 +12780,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12798,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>437</v>
@@ -12830,7 +12830,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>438</v>
@@ -12880,7 +12880,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>439</v>
@@ -12930,7 +12930,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>440</v>
@@ -12980,7 +12980,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>441</v>
@@ -13030,7 +13030,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002828690810103878</v>
+        <v>0.0002882074393943314</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13048,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>442</v>
@@ -13080,25 +13080,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002828690810103878</v>
+        <v>0.0002545646984620495</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F200">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>443</v>
@@ -13130,25 +13130,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002828690810103878</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F201">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>444</v>
@@ -13180,25 +13180,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002498494919595845</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>445</v>
@@ -13230,7 +13230,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>446</v>
@@ -13280,7 +13280,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>447</v>
@@ -13330,7 +13330,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13348,7 +13348,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>448</v>
@@ -13380,7 +13380,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>449</v>
@@ -13430,7 +13430,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13448,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>450</v>
@@ -13480,7 +13480,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13498,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>451</v>
@@ -13530,7 +13530,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>452</v>
@@ -13580,7 +13580,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13598,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>453</v>
@@ -13630,7 +13630,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002140664708287386</v>
+        <v>0.0002181063734408867</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13680,25 +13680,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002140664708287386</v>
+        <v>0.0001979283349640166</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>455</v>
@@ -13730,25 +13730,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002140664708287386</v>
+        <v>0.0001979283349640166</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>456</v>
@@ -13780,7 +13780,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001942621825961401</v>
+        <v>0.0001979283349640166</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -13798,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>457</v>
@@ -13830,13 +13830,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001942621825961401</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <v>0.75</v>
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>458</v>
@@ -13880,13 +13880,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001942621825961401</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>0.75</v>
@@ -13898,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>459</v>
@@ -13930,7 +13930,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>460</v>
@@ -13980,7 +13980,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>461</v>
@@ -14030,7 +14030,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>462</v>
@@ -14080,7 +14080,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>463</v>
@@ -14130,7 +14130,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14148,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>464</v>
@@ -14180,7 +14180,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001373641066418306</v>
+        <v>0.0001399564678420192</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>465</v>
@@ -14230,25 +14230,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001373641066418306</v>
+        <v>0.000139235626077147</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>466</v>
@@ -14280,25 +14280,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001373641066418306</v>
+        <v>0.000139235626077147</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>467</v>
@@ -14330,7 +14330,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001366566167588081</v>
+        <v>0.000139235626077147</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>468</v>
@@ -14380,25 +14380,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001366566167588081</v>
+        <v>9.866826269948144E-05</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>469</v>
@@ -14430,25 +14430,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001366566167588081</v>
+        <v>8.056229914020571E-05</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F227">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>470</v>
@@ -14480,13 +14480,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>9.684066744892912E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
         <v>3</v>
-      </c>
-      <c r="D228">
-        <v>9</v>
       </c>
       <c r="E228">
         <v>0.67</v>
@@ -14498,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>471</v>
@@ -14530,25 +14530,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>7.907007386680998E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229">
+        <v>0.67</v>
+      </c>
+      <c r="F229">
         <v>0.33</v>
       </c>
-      <c r="F229">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>472</v>
@@ -14580,7 +14580,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14598,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>473</v>
@@ -14630,7 +14630,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>474</v>
@@ -14680,7 +14680,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14698,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>475</v>
@@ -14730,7 +14730,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14748,10 +14748,10 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K233">
         <v>0.001083664199402667</v>
@@ -14780,7 +14780,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14798,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K234">
         <v>0.001045784940779825</v>
@@ -14830,7 +14830,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14848,10 +14848,10 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K235">
         <v>0.001045002731277919</v>
@@ -14880,7 +14880,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14898,10 +14898,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K236">
         <v>0.0009711545281565401</v>
@@ -14930,7 +14930,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>476</v>
@@ -14980,7 +14980,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14998,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>477</v>
@@ -15030,7 +15030,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>478</v>
@@ -15080,7 +15080,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>479</v>
@@ -15130,7 +15130,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>480</v>
@@ -15180,7 +15180,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>481</v>
@@ -15230,7 +15230,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>482</v>
@@ -15280,7 +15280,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>483</v>
@@ -15330,7 +15330,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>484</v>
@@ -15380,7 +15380,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.591098542014168E-05</v>
+        <v>5.696614803001772E-05</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>485</v>
@@ -15430,25 +15430,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.591098542014168E-05</v>
+        <v>2.783837754870204E-05</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>486</v>
@@ -15480,25 +15480,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.591098542014168E-05</v>
+        <v>2.783837754870204E-05</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>0.6</v>
+      </c>
+      <c r="F248">
+        <v>0.4</v>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248">
         <v>3</v>
-      </c>
-      <c r="E248">
-        <v>0.67</v>
-      </c>
-      <c r="F248">
-        <v>0.33</v>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>42</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>487</v>
@@ -15530,25 +15530,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>2.732273771478656E-05</v>
+        <v>1.720730520714496E-05</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F249">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>488</v>
@@ -15580,25 +15580,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>2.732273771478656E-05</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F250">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>489</v>
@@ -15630,25 +15630,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>1.68885807418408E-05</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F251">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>490</v>
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>491</v>
@@ -15748,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>492</v>
@@ -15848,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>494</v>
@@ -15933,10 +15933,10 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E257">
         <v>0.5</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>496</v>
@@ -15998,7 +15998,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>497</v>
@@ -16033,10 +16033,10 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E259">
         <v>0.5</v>
@@ -16048,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>962</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>498</v>
@@ -16098,7 +16098,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>499</v>
@@ -16126,30 +16126,6 @@
       </c>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261">
-        <v>3</v>
-      </c>
-      <c r="D261">
-        <v>6</v>
-      </c>
-      <c r="E261">
-        <v>0.5</v>
-      </c>
-      <c r="F261">
-        <v>0.5</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>962</v>
-      </c>
       <c r="J261" s="1" t="s">
         <v>500</v>
       </c>
@@ -16176,30 +16152,6 @@
       </c>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262">
-        <v>0.5</v>
-      </c>
-      <c r="F262">
-        <v>0.5</v>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>87</v>
-      </c>
       <c r="J262" s="1" t="s">
         <v>501</v>
       </c>
@@ -17501,7 +17453,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K312">
         <v>0.0009336294295686797</v>
@@ -17527,7 +17479,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K313">
         <v>0.0009336294295686797</v>
@@ -17553,7 +17505,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K314">
         <v>0.000849512694799807</v>
@@ -17579,7 +17531,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K315">
         <v>0.0008435622285796807</v>
@@ -17605,7 +17557,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K316">
         <v>0.0008139477375145107</v>
@@ -17631,7 +17583,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K317">
         <v>0.0008139477375145107</v>
@@ -20985,7 +20937,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K446">
         <v>0.0007845101876564497</v>
@@ -21011,7 +20963,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K447">
         <v>0.0007394816232881874</v>
@@ -21037,7 +20989,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K448">
         <v>0.0007394816232881874</v>
@@ -21063,7 +21015,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K449">
         <v>0.0006985237050425393</v>
@@ -21089,7 +21041,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K450">
         <v>0.0006585305954162341</v>
@@ -21115,7 +21067,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K451">
         <v>0.0006585305954162341</v>
@@ -21141,7 +21093,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K452">
         <v>0.0006172984934067193</v>
@@ -21167,7 +21119,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K453">
         <v>0.0006014323328546701</v>
@@ -21193,7 +21145,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K454">
         <v>0.0006014323328546701</v>
@@ -21219,7 +21171,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K455">
         <v>0.0005755479647279586</v>
@@ -21245,7 +21197,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K456">
         <v>0.0005755479647279586</v>
@@ -21271,7 +21223,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K457">
         <v>0.0005755479647279586</v>
@@ -21297,7 +21249,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K458">
         <v>0.0005755479647279586</v>
@@ -21323,7 +21275,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K459">
         <v>0.0005755479647279586</v>
@@ -21349,7 +21301,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K460">
         <v>0.0005703422168642007</v>
@@ -27953,7 +27905,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K714">
         <v>0.0005390807843940982</v>
@@ -27979,7 +27931,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K715">
         <v>0.0005332716348139237</v>
@@ -28005,7 +27957,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K716">
         <v>0.0005332716348139237</v>
@@ -28031,7 +27983,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K717">
         <v>0.0004904663830226718</v>
@@ -28057,7 +28009,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K718">
         <v>0.0004904663830226718</v>
@@ -28083,7 +28035,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K719">
         <v>0.0004904663830226718</v>
@@ -28109,7 +28061,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K720">
         <v>0.0004904663830226718</v>
@@ -28135,7 +28087,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K721">
         <v>0.0004904663830226718</v>
@@ -28161,7 +28113,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K722">
         <v>0.0004904663830226718</v>
@@ -28187,7 +28139,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K723">
         <v>0.0004904663830226718</v>
@@ -28213,7 +28165,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K724">
         <v>0.0004471356333026822</v>
@@ -28239,7 +28191,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K725">
         <v>0.0004471356333026822</v>
@@ -28265,7 +28217,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K726">
         <v>0.0004125241279276486</v>
@@ -28291,7 +28243,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K727">
         <v>0.0004032928491416448</v>
@@ -28317,7 +28269,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K728">
         <v>0.0004032928491416448</v>
@@ -28343,7 +28295,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K729">
         <v>0.0004032928491416448</v>
@@ -28369,7 +28321,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K730">
         <v>0.0004032928491416448</v>
@@ -28395,7 +28347,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K731">
         <v>0.0003805890793444079</v>
@@ -28421,7 +28373,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K732">
         <v>0.0003589669790243223</v>
@@ -28447,7 +28399,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K733">
         <v>0.0003589669790243223</v>
@@ -28473,7 +28425,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K734">
         <v>0.0003589669790243223</v>
@@ -28499,7 +28451,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K735">
         <v>0.0003165573361545475</v>
@@ -28525,7 +28477,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K736">
         <v>0.0003142111643670321</v>
@@ -28551,7 +28503,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K737">
         <v>0.0003142111643670321</v>
@@ -28577,7 +28529,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K738">
         <v>0.0003142111643670321</v>
@@ -28603,7 +28555,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K739">
         <v>0.0003142111643670321</v>
@@ -28629,7 +28581,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K740">
         <v>0.0003142111643670321</v>
@@ -28655,7 +28607,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K741">
         <v>0.0003142111643670321</v>
@@ -28681,7 +28633,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K742">
         <v>0.0002834758070731012</v>
@@ -28707,7 +28659,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K743">
         <v>0.0002691171188499758</v>
@@ -28733,7 +28685,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K744">
         <v>0.0002691171188499758</v>
@@ -28759,7 +28711,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K745">
         <v>0.0002691171188499758</v>
@@ -28785,7 +28737,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K746">
         <v>0.0002691171188499758</v>
@@ -28811,7 +28763,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K747">
         <v>0.0002691171188499758</v>
@@ -28837,7 +28789,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K748">
         <v>0.0002691171188499758</v>
@@ -28863,7 +28815,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K749">
         <v>0.0002691171188499758</v>
@@ -28889,7 +28841,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K750">
         <v>0.000252638299804383</v>
@@ -28915,7 +28867,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K751">
         <v>0.0002320623972119633</v>
@@ -28941,7 +28893,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K752">
         <v>0.0002238398390292305</v>
@@ -28967,7 +28919,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K753">
         <v>0.0002238398390292305</v>
@@ -28993,7 +28945,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K754">
         <v>0.0002238398390292305</v>
@@ -29019,7 +28971,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K755">
         <v>0.0002238398390292305</v>
@@ -29045,7 +28997,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K756">
         <v>0.0002238398390292305</v>
@@ -29071,7 +29023,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K757">
         <v>0.0002238398390292305</v>
@@ -29097,7 +29049,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K758">
         <v>0.0002238398390292305</v>
@@ -29123,7 +29075,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K759">
         <v>0.0002238398390292305</v>
@@ -29149,7 +29101,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K760">
         <v>0.0002238398390292305</v>
@@ -29175,7 +29127,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K761">
         <v>0.0002238398390292305</v>
@@ -29201,7 +29153,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K762">
         <v>0.0002238398390292305</v>
@@ -29227,7 +29179,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K763">
         <v>0.000220906786200191</v>
@@ -29253,7 +29205,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K764">
         <v>0.000220906786200191</v>
@@ -29279,7 +29231,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K765">
         <v>0.0001894781538854599</v>
@@ -29305,7 +29257,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K766">
         <v>0.0001894781538854599</v>
@@ -29331,7 +29283,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K767">
         <v>0.0001816761926768869</v>
@@ -29357,7 +29309,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K768">
         <v>0.0001786422549791193</v>
@@ -29383,7 +29335,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K769">
         <v>0.0001786422549791193</v>
@@ -29409,7 +29361,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K770">
         <v>0.0001786422549791193</v>
@@ -29435,7 +29387,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K771">
         <v>0.0001786422549791193</v>
@@ -29461,7 +29413,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K772">
         <v>0.0001786422549791193</v>
@@ -29487,7 +29439,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K773">
         <v>0.0001786422549791193</v>
@@ -29513,7 +29465,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K774">
         <v>0.0001400235731464761</v>
@@ -29539,7 +29491,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K775">
         <v>0.0001339812874991168</v>
@@ -29565,7 +29517,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K776">
         <v>0.0001339812874991168</v>
@@ -29591,7 +29543,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K777">
         <v>0.0001339812874991168</v>
@@ -29617,7 +29569,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K778">
         <v>0.0001339812874991168</v>
@@ -29643,7 +29595,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K779">
         <v>0.0001339812874991168</v>
@@ -29669,7 +29621,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K780">
         <v>0.0001339812874991168</v>
@@ -29695,7 +29647,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K781">
         <v>0.0001339812874991168</v>
@@ -29721,7 +29673,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K782">
         <v>0.0001339812874991168</v>
@@ -29747,7 +29699,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K783">
         <v>9.901161809784381E-05</v>
@@ -29773,7 +29725,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K784">
         <v>9.068851907708252E-05</v>
@@ -29799,7 +29751,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K785">
         <v>9.068851907708252E-05</v>
@@ -29825,7 +29777,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K786">
         <v>9.068851907708252E-05</v>
@@ -29851,7 +29803,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K787">
         <v>9.068851907708252E-05</v>
@@ -29877,7 +29829,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K788">
         <v>9.068851907708252E-05</v>
@@ -29903,7 +29855,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K789">
         <v>9.068851907708252E-05</v>
@@ -29929,7 +29881,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K790">
         <v>9.068851907708252E-05</v>
@@ -29955,7 +29907,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K791">
         <v>9.068851907708252E-05</v>
@@ -29981,7 +29933,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K792">
         <v>9.068851907708252E-05</v>
@@ -30007,7 +29959,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K793">
         <v>9.068851907708252E-05</v>
@@ -30033,7 +29985,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K794">
         <v>9.068851907708252E-05</v>
@@ -30059,7 +30011,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K795">
         <v>7.12725925139079E-05</v>
@@ -30085,7 +30037,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K796">
         <v>7.12725925139079E-05</v>
@@ -30111,7 +30063,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K797">
         <v>7.12725925139079E-05</v>
@@ -30137,7 +30089,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K798">
         <v>5.039733347932984E-05</v>
@@ -30163,7 +30115,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K799">
         <v>5.039733347932984E-05</v>
@@ -30189,7 +30141,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K800">
         <v>5.039733347932984E-05</v>
@@ -30215,7 +30167,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K801">
         <v>5.039733347932984E-05</v>
@@ -30241,7 +30193,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K802">
         <v>5.039733347932984E-05</v>
@@ -30267,7 +30219,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K803">
         <v>5.039733347932984E-05</v>
@@ -30293,7 +30245,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K804">
         <v>5.039733347932984E-05</v>
@@ -30319,7 +30271,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K805">
         <v>5.039733347932984E-05</v>
@@ -30345,7 +30297,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K806">
         <v>4.576930671815083E-05</v>
@@ -30371,7 +30323,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K807">
         <v>4.576930671815083E-05</v>
@@ -30397,7 +30349,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K808">
         <v>4.576930671815083E-05</v>
@@ -30423,7 +30375,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K809">
         <v>2.900991371269414E-05</v>
@@ -30449,7 +30401,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K810">
         <v>1.674888149119204E-05</v>
@@ -30475,7 +30427,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K811">
         <v>1.674888149119204E-05</v>
@@ -30501,7 +30453,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K812">
         <v>1.674888149119204E-05</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K813">
         <v>1.674888149119204E-05</v>
@@ -30553,7 +30505,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K814">
         <v>1.674888149119204E-05</v>
@@ -30579,7 +30531,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K815">
         <v>1.674888149119204E-05</v>
@@ -30605,7 +30557,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K816">
         <v>1.674888149119204E-05</v>
@@ -30631,7 +30583,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K817">
         <v>1.674888149119204E-05</v>
@@ -30657,7 +30609,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K818">
         <v>1.674888149119204E-05</v>
@@ -30683,7 +30635,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K819">
         <v>1.674888149119204E-05</v>
@@ -30709,7 +30661,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K820">
         <v>1.674888149119204E-05</v>
@@ -30735,7 +30687,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K821">
         <v>1.674888149119204E-05</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K822">
         <v>1.674888149119204E-05</v>
@@ -30787,7 +30739,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K823">
         <v>1.674888149119204E-05</v>
@@ -30813,7 +30765,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K824">
         <v>1.674888149119204E-05</v>
@@ -30839,7 +30791,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K825">
         <v>1.674888149119204E-05</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K826">
         <v>1.674888149119204E-05</v>
@@ -30891,7 +30843,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K827">
         <v>1.674888149119204E-05</v>
@@ -30917,7 +30869,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K828">
         <v>1.674888149119204E-05</v>
@@ -30943,7 +30895,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K829">
         <v>1.184324767971156E-05</v>
@@ -30969,7 +30921,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K830">
         <v>7.088323140294629E-06</v>
@@ -30995,7 +30947,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K831">
         <v>7.088323140294629E-06</v>
@@ -31021,7 +30973,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K832">
         <v>4.130819209603481E-06</v>
@@ -31047,7 +30999,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K833">
         <v>0</v>
@@ -31073,7 +31025,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K834">
         <v>0</v>
@@ -31099,7 +31051,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K835">
         <v>0</v>
@@ -31125,7 +31077,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K836">
         <v>0</v>
@@ -31151,7 +31103,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K837">
         <v>0</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K838">
         <v>0</v>
@@ -31203,7 +31155,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K839">
         <v>0</v>
@@ -31229,7 +31181,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K840">
         <v>0</v>
@@ -31255,7 +31207,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K841">
         <v>0</v>
@@ -31281,7 +31233,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K842">
         <v>0</v>
@@ -31307,7 +31259,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K843">
         <v>0</v>
